--- a/src/template.xlsx
+++ b/src/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\serverProject\simple_form_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\serverProject\simple_form_app\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FA0E9-459D-4C31-8C10-9BF3AC8561F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C483D-7EB0-4E49-A463-E11E2D1FE6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="-11640" windowWidth="20730" windowHeight="11760" xr2:uid="{7A03FF2B-7E4A-4044-AAA6-0FD476E3A43D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{7A03FF2B-7E4A-4044-AAA6-0FD476E3A43D}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5C96F-84E7-46DD-A132-D0B9F99D7D9D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
@@ -595,6 +601,8 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
